--- a/用例数据/深A/缩股GSSG/测试结果.xlsx
+++ b/用例数据/深A/缩股GSSG/测试结果.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="321">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -984,13 +984,16 @@
   </si>
   <si>
     <t>000006908517</t>
+  </si>
+  <si>
+    <t>CCB1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,6 +1008,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1014,7 +1023,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1022,13 +1031,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4060,7 +4087,7 @@
   <dimension ref="A1:EI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4193,7 +4220,7 @@
     <col min="138" max="138" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4609,7 +4636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -4628,6 +4655,9 @@
       <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>175</v>
       </c>
@@ -4938,7 +4968,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>313</v>
       </c>
@@ -4957,6 +4987,9 @@
       <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>175</v>
       </c>
@@ -5264,7 +5297,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>315</v>
       </c>
@@ -5283,6 +5316,9 @@
       <c r="F4" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>187</v>
       </c>
@@ -5590,7 +5626,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>318</v>
       </c>
@@ -5608,6 +5644,9 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>187</v>
@@ -5925,5 +5964,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/用例数据/深A/缩股GSSG/测试结果.xlsx
+++ b/用例数据/深A/缩股GSSG/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深A\缩股GSSG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="12215" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="exchangerights" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="320">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -906,21 +911,12 @@
     <t>ADJUSTEDFEEFLAG</t>
   </si>
   <si>
-    <t>30200283</t>
-  </si>
-  <si>
     <t>005_004_079</t>
   </si>
   <si>
-    <t>20220321163924</t>
-  </si>
-  <si>
     <t>99990</t>
   </si>
   <si>
-    <t>8316784.830</t>
-  </si>
-  <si>
     <t>4710</t>
   </si>
   <si>
@@ -933,18 +929,12 @@
     <t>001</t>
   </si>
   <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>缩股业务，限售股减少</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>000006870239</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -954,38 +944,53 @@
     <t>0.000000</t>
   </si>
   <si>
-    <t>30200284</t>
-  </si>
-  <si>
-    <t>000006870240</t>
-  </si>
-  <si>
-    <t>30200285</t>
-  </si>
-  <si>
-    <t>8267194.830</t>
-  </si>
-  <si>
-    <t>000006870241</t>
-  </si>
-  <si>
-    <t>30200286</t>
-  </si>
-  <si>
-    <t>000006870242</t>
+    <t>30052804</t>
+  </si>
+  <si>
+    <t>20221011231453</t>
+  </si>
+  <si>
+    <t>20221011000000</t>
+  </si>
+  <si>
+    <t>1000778735.780</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000006908514</t>
+  </si>
+  <si>
+    <t>30052805</t>
+  </si>
+  <si>
+    <t>000006908515</t>
+  </si>
+  <si>
+    <t>30052806</t>
+  </si>
+  <si>
+    <t>10676985.000</t>
+  </si>
+  <si>
+    <t>000006908516</t>
+  </si>
+  <si>
+    <t>30052807</t>
+  </si>
+  <si>
+    <t>000006908517</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,352 +999,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1347,311 +1022,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1938,80 +1327,80 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="15" width="10.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="10.75" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.66666666666667" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
-    <col min="22" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="11.8888888888889" customWidth="1"/>
-    <col min="26" max="27" width="9.66666666666667" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="7.625" customWidth="1"/>
+    <col min="22" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="11.875" customWidth="1"/>
+    <col min="26" max="27" width="9.625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="7.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="9.66666666666667" customWidth="1"/>
+    <col min="29" max="29" width="8.625" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="32" width="7.625" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="11.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="16.4444444444444" customWidth="1"/>
-    <col min="42" max="43" width="11.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="11.8888888888889" customWidth="1"/>
-    <col min="46" max="46" width="14.1111111111111" customWidth="1"/>
-    <col min="47" max="47" width="8.66666666666667" customWidth="1"/>
-    <col min="48" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="5.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="6.66666666666667" customWidth="1"/>
-    <col min="51" max="52" width="14.1111111111111" customWidth="1"/>
-    <col min="53" max="53" width="8.66666666666667" customWidth="1"/>
-    <col min="54" max="54" width="15.2222222222222" customWidth="1"/>
-    <col min="55" max="55" width="14.1111111111111" customWidth="1"/>
-    <col min="56" max="56" width="20.8888888888889" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="36" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="43" width="11.875" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="11.875" customWidth="1"/>
+    <col min="46" max="46" width="14.125" customWidth="1"/>
+    <col min="47" max="47" width="8.625" customWidth="1"/>
+    <col min="48" max="48" width="11.875" customWidth="1"/>
+    <col min="49" max="49" width="5.625" customWidth="1"/>
+    <col min="50" max="50" width="6.625" customWidth="1"/>
+    <col min="51" max="52" width="14.125" customWidth="1"/>
+    <col min="53" max="53" width="8.625" customWidth="1"/>
+    <col min="54" max="54" width="15.25" customWidth="1"/>
+    <col min="55" max="55" width="14.125" customWidth="1"/>
+    <col min="56" max="56" width="20.875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.1111111111111" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="10.7777777777778" customWidth="1"/>
-    <col min="61" max="61" width="5.66666666666667" customWidth="1"/>
-    <col min="62" max="62" width="10.7777777777778" customWidth="1"/>
-    <col min="63" max="63" width="16.4444444444444" customWidth="1"/>
-    <col min="64" max="64" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="14.125" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="10.75" customWidth="1"/>
+    <col min="61" max="61" width="5.625" customWidth="1"/>
+    <col min="62" max="62" width="10.75" customWidth="1"/>
+    <col min="63" max="63" width="16.5" customWidth="1"/>
+    <col min="64" max="64" width="11.875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.7777777777778" customWidth="1"/>
-    <col min="67" max="68" width="11.8888888888889" customWidth="1"/>
+    <col min="66" max="66" width="10.75" customWidth="1"/>
+    <col min="67" max="68" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:68">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +1606,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:68">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -2357,7 +1746,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:68">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -2497,7 +1886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:68">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -2637,7 +2026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:68">
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -2777,34 +2166,33 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:86">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3064,7 +2452,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:86">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -3324,7 +2712,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:86">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -3584,35 +2972,34 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
@@ -3851,7 +3238,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:79">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,7 +3477,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:79">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -4330,23 +3717,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4390,7 +3776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -4434,7 +3820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -4478,44 +3864,43 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="4" width="14.1111111111111" customWidth="1"/>
-    <col min="5" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="8" width="7.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="10.7777777777778" customWidth="1"/>
-    <col min="13" max="13" width="15.2222222222222" customWidth="1"/>
-    <col min="14" max="14" width="10.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
@@ -4562,7 +3947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -4609,7 +3994,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -4656,160 +4041,159 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:EH13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="8.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.66666666666667" customWidth="1"/>
-    <col min="21" max="21" width="10.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="9.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="16.4444444444444" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="7.625" customWidth="1"/>
+    <col min="21" max="21" width="10.75" customWidth="1"/>
+    <col min="22" max="22" width="9.625" customWidth="1"/>
+    <col min="23" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="26" max="26" width="9.625" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="9.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="23.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="10.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="15.2222222222222" customWidth="1"/>
-    <col min="33" max="34" width="14.1111111111111" customWidth="1"/>
+    <col min="28" max="28" width="8.625" customWidth="1"/>
+    <col min="29" max="29" width="9.625" customWidth="1"/>
+    <col min="30" max="30" width="23.125" customWidth="1"/>
+    <col min="31" max="31" width="10.75" customWidth="1"/>
+    <col min="32" max="32" width="15.25" customWidth="1"/>
+    <col min="33" max="34" width="14.125" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
+    <col min="37" max="37" width="9.625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="41" width="11.8888888888889" customWidth="1"/>
-    <col min="42" max="43" width="9.66666666666667" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
+    <col min="39" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="14.125" customWidth="1"/>
+    <col min="41" max="41" width="11.875" customWidth="1"/>
+    <col min="42" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="45" width="14.125" customWidth="1"/>
+    <col min="46" max="46" width="9.625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="8.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="17.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="11.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="9.66666666666667" customWidth="1"/>
+    <col min="48" max="48" width="14.125" customWidth="1"/>
+    <col min="49" max="49" width="8.625" customWidth="1"/>
+    <col min="50" max="50" width="17.5" customWidth="1"/>
+    <col min="51" max="51" width="11.875" customWidth="1"/>
+    <col min="52" max="52" width="8.625" customWidth="1"/>
+    <col min="53" max="53" width="9.625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.4444444444444" customWidth="1"/>
+    <col min="55" max="55" width="16.5" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="23.1111111111111" customWidth="1"/>
-    <col min="61" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="14.1111111111111" customWidth="1"/>
-    <col min="63" max="63" width="11.8888888888889" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" customWidth="1"/>
-    <col min="66" max="66" width="9.66666666666667" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="10.7777777777778" customWidth="1"/>
-    <col min="69" max="69" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="16.5" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="23.125" customWidth="1"/>
+    <col min="61" max="61" width="17.5" customWidth="1"/>
+    <col min="62" max="62" width="14.125" customWidth="1"/>
+    <col min="63" max="63" width="11.875" customWidth="1"/>
+    <col min="64" max="64" width="8.625" customWidth="1"/>
+    <col min="65" max="65" width="14.125" customWidth="1"/>
+    <col min="66" max="66" width="9.625" customWidth="1"/>
+    <col min="67" max="67" width="17.5" customWidth="1"/>
+    <col min="68" max="68" width="10.75" customWidth="1"/>
+    <col min="69" max="69" width="11.875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.8888888888889" customWidth="1"/>
-    <col min="72" max="72" width="15.2222222222222" customWidth="1"/>
-    <col min="73" max="73" width="11.8888888888889" customWidth="1"/>
+    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="72" max="72" width="15.25" customWidth="1"/>
+    <col min="73" max="73" width="11.875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="20.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="16.4444444444444" customWidth="1"/>
+    <col min="75" max="75" width="17.5" customWidth="1"/>
+    <col min="76" max="76" width="20.875" customWidth="1"/>
+    <col min="77" max="77" width="16.5" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="10.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="11.8888888888889" customWidth="1"/>
-    <col min="82" max="83" width="7.66666666666667" customWidth="1"/>
-    <col min="84" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="16.4444444444444" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="14.1111111111111" customWidth="1"/>
-    <col min="89" max="89" width="11.8888888888889" customWidth="1"/>
-    <col min="90" max="90" width="10.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="11.8888888888889" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="23.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="7.66666666666667" customWidth="1"/>
-    <col min="96" max="96" width="18.6666666666667" customWidth="1"/>
-    <col min="97" max="97" width="10.7777777777778" customWidth="1"/>
-    <col min="98" max="98" width="14.1111111111111" customWidth="1"/>
+    <col min="79" max="79" width="11.875" customWidth="1"/>
+    <col min="80" max="80" width="10.75" customWidth="1"/>
+    <col min="81" max="81" width="11.875" customWidth="1"/>
+    <col min="82" max="83" width="7.625" customWidth="1"/>
+    <col min="84" max="85" width="17.5" customWidth="1"/>
+    <col min="86" max="86" width="16.5" customWidth="1"/>
+    <col min="87" max="87" width="11.875" customWidth="1"/>
+    <col min="88" max="88" width="14.125" customWidth="1"/>
+    <col min="89" max="89" width="11.875" customWidth="1"/>
+    <col min="90" max="90" width="10.75" customWidth="1"/>
+    <col min="91" max="91" width="11.875" customWidth="1"/>
+    <col min="92" max="92" width="19.75" customWidth="1"/>
+    <col min="93" max="93" width="16.5" customWidth="1"/>
+    <col min="94" max="94" width="23.125" customWidth="1"/>
+    <col min="95" max="95" width="7.625" customWidth="1"/>
+    <col min="96" max="96" width="18.625" customWidth="1"/>
+    <col min="97" max="97" width="10.75" customWidth="1"/>
+    <col min="98" max="98" width="14.125" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.4444444444444" customWidth="1"/>
+    <col min="100" max="100" width="16.5" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.66666666666667" customWidth="1"/>
-    <col min="104" max="104" width="16.4444444444444" customWidth="1"/>
-    <col min="105" max="105" width="14.1111111111111" customWidth="1"/>
-    <col min="106" max="106" width="11.8888888888889" customWidth="1"/>
-    <col min="107" max="108" width="15.2222222222222" customWidth="1"/>
-    <col min="109" max="109" width="9.66666666666667" customWidth="1"/>
+    <col min="103" max="103" width="9.625" customWidth="1"/>
+    <col min="104" max="104" width="16.5" customWidth="1"/>
+    <col min="105" max="105" width="14.125" customWidth="1"/>
+    <col min="106" max="106" width="11.875" customWidth="1"/>
+    <col min="107" max="108" width="15.25" customWidth="1"/>
+    <col min="109" max="109" width="9.625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.66666666666667" customWidth="1"/>
-    <col min="112" max="112" width="15.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="17.5555555555556" customWidth="1"/>
-    <col min="114" max="114" width="14.1111111111111" customWidth="1"/>
-    <col min="115" max="115" width="19.7777777777778" customWidth="1"/>
-    <col min="116" max="116" width="16.4444444444444" customWidth="1"/>
-    <col min="117" max="117" width="20.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="24.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="17.5555555555556" customWidth="1"/>
+    <col min="111" max="111" width="9.625" customWidth="1"/>
+    <col min="112" max="112" width="15.25" customWidth="1"/>
+    <col min="113" max="113" width="17.5" customWidth="1"/>
+    <col min="114" max="114" width="14.125" customWidth="1"/>
+    <col min="115" max="115" width="19.75" customWidth="1"/>
+    <col min="116" max="116" width="16.5" customWidth="1"/>
+    <col min="117" max="117" width="20.875" customWidth="1"/>
+    <col min="118" max="118" width="24.25" customWidth="1"/>
+    <col min="119" max="119" width="16.5" customWidth="1"/>
+    <col min="120" max="120" width="17.5" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.8888888888889" customWidth="1"/>
-    <col min="124" max="124" width="19.7777777777778" customWidth="1"/>
-    <col min="125" max="125" width="17.5555555555556" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="8.66666666666667" customWidth="1"/>
-    <col min="129" max="129" width="15.2222222222222" customWidth="1"/>
+    <col min="122" max="123" width="20.875" customWidth="1"/>
+    <col min="124" max="124" width="19.75" customWidth="1"/>
+    <col min="125" max="125" width="17.5" customWidth="1"/>
+    <col min="126" max="126" width="20.875" customWidth="1"/>
+    <col min="127" max="127" width="18.625" customWidth="1"/>
+    <col min="128" max="128" width="8.625" customWidth="1"/>
+    <col min="129" max="129" width="15.25" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.1111111111111" customWidth="1"/>
-    <col min="132" max="132" width="10.7777777777778" customWidth="1"/>
-    <col min="133" max="133" width="11.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="16.4444444444444" customWidth="1"/>
-    <col min="136" max="136" width="14.1111111111111" customWidth="1"/>
-    <col min="137" max="137" width="17.5555555555556" customWidth="1"/>
-    <col min="138" max="138" width="14.1111111111111" customWidth="1"/>
+    <col min="131" max="131" width="14.125" customWidth="1"/>
+    <col min="132" max="132" width="10.75" customWidth="1"/>
+    <col min="133" max="133" width="11.875" customWidth="1"/>
+    <col min="134" max="134" width="15.25" customWidth="1"/>
+    <col min="135" max="135" width="16.5" customWidth="1"/>
+    <col min="136" max="136" width="14.125" customWidth="1"/>
+    <col min="137" max="137" width="17.5" customWidth="1"/>
+    <col min="138" max="138" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:138">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5225,21 +4609,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:137">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>70</v>
@@ -5272,7 +4656,7 @@
         <v>182</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>75</v>
@@ -5287,7 +4671,7 @@
         <v>77</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>74</v>
@@ -5296,10 +4680,10 @@
         <v>74</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>74</v>
@@ -5341,10 +4725,10 @@
         <v>74</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>175</v>
@@ -5353,13 +4737,13 @@
         <v>176</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>185</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>84</v>
@@ -5368,7 +4752,7 @@
         <v>74</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>78</v>
@@ -5386,7 +4770,7 @@
         <v>78</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>77</v>
@@ -5401,7 +4785,7 @@
         <v>78</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>85</v>
@@ -5431,7 +4815,7 @@
         <v>70</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>74</v>
@@ -5449,7 +4833,7 @@
         <v>78</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>85</v>
@@ -5461,16 +4845,16 @@
         <v>184</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>74</v>
@@ -5479,7 +4863,7 @@
         <v>74</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>184</v>
@@ -5550,22 +4934,25 @@
       <c r="EG2" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:137">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>70</v>
@@ -5598,7 +4985,7 @@
         <v>182</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>75</v>
@@ -5613,7 +5000,7 @@
         <v>77</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>74</v>
@@ -5622,7 +5009,7 @@
         <v>74</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>178</v>
@@ -5667,10 +5054,10 @@
         <v>74</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>175</v>
@@ -5679,13 +5066,13 @@
         <v>176</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>185</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>84</v>
@@ -5694,7 +5081,7 @@
         <v>74</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>78</v>
@@ -5724,7 +5111,7 @@
         <v>78</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>85</v>
@@ -5754,7 +5141,7 @@
         <v>70</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>74</v>
@@ -5772,7 +5159,7 @@
         <v>78</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>85</v>
@@ -5784,16 +5171,16 @@
         <v>184</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>74</v>
@@ -5802,7 +5189,7 @@
         <v>74</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>184</v>
@@ -5873,22 +5260,25 @@
       <c r="EG3" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="EI3" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:137">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>70</v>
@@ -5921,7 +5311,7 @@
         <v>182</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>75</v>
@@ -5936,7 +5326,7 @@
         <v>77</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>74</v>
@@ -5945,7 +5335,7 @@
         <v>74</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>188</v>
@@ -5990,10 +5380,10 @@
         <v>74</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>187</v>
@@ -6002,13 +5392,13 @@
         <v>176</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>185</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>84</v>
@@ -6017,7 +5407,7 @@
         <v>74</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>78</v>
@@ -6047,7 +5437,7 @@
         <v>78</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>85</v>
@@ -6077,7 +5467,7 @@
         <v>70</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>74</v>
@@ -6095,7 +5485,7 @@
         <v>78</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>85</v>
@@ -6107,16 +5497,16 @@
         <v>184</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>78</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="DC4" s="1" t="s">
         <v>74</v>
@@ -6125,7 +5515,7 @@
         <v>74</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>184</v>
@@ -6196,22 +5586,25 @@
       <c r="EG4" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="EI4" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:137">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>70</v>
@@ -6244,7 +5637,7 @@
         <v>182</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>75</v>
@@ -6259,7 +5652,7 @@
         <v>77</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>74</v>
@@ -6268,7 +5661,7 @@
         <v>74</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>188</v>
@@ -6313,10 +5706,10 @@
         <v>74</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>187</v>
@@ -6325,13 +5718,13 @@
         <v>176</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>185</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>84</v>
@@ -6340,7 +5733,7 @@
         <v>74</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>78</v>
@@ -6358,7 +5751,7 @@
         <v>78</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>77</v>
@@ -6373,7 +5766,7 @@
         <v>78</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>85</v>
@@ -6403,7 +5796,7 @@
         <v>70</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>74</v>
@@ -6421,7 +5814,7 @@
         <v>78</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>85</v>
@@ -6433,16 +5826,16 @@
         <v>184</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>78</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="DC5" s="1" t="s">
         <v>74</v>
@@ -6451,7 +5844,7 @@
         <v>74</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>184</v>
@@ -6522,17 +5915,15 @@
       <c r="EG5" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="EI5" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/用例数据/深A/缩股GSSG/测试结果.xlsx
+++ b/用例数据/深A/缩股GSSG/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12216" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="exchangerights" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="322">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -956,9 +956,6 @@
     <t>1000778735.780</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -987,13 +984,34 @@
   </si>
   <si>
     <t>CCB1</t>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,6 +1031,14 @@
       <color rgb="FF333333"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1050,12 +1076,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1366,68 +1393,68 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.75" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="7.625" customWidth="1"/>
-    <col min="22" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="11.875" customWidth="1"/>
-    <col min="26" max="27" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+    <col min="26" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.625" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="7.625" customWidth="1"/>
-    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.125" customWidth="1"/>
-    <col min="36" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="11.875" customWidth="1"/>
-    <col min="41" max="41" width="16.5" customWidth="1"/>
-    <col min="42" max="43" width="11.875" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="11.875" customWidth="1"/>
-    <col min="46" max="46" width="14.125" customWidth="1"/>
-    <col min="47" max="47" width="8.625" customWidth="1"/>
-    <col min="48" max="48" width="11.875" customWidth="1"/>
-    <col min="49" max="49" width="5.625" customWidth="1"/>
-    <col min="50" max="50" width="6.625" customWidth="1"/>
-    <col min="51" max="52" width="14.125" customWidth="1"/>
-    <col min="53" max="53" width="8.625" customWidth="1"/>
-    <col min="54" max="54" width="15.25" customWidth="1"/>
-    <col min="55" max="55" width="14.125" customWidth="1"/>
-    <col min="56" max="56" width="20.875" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="42" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="11.88671875" customWidth="1"/>
+    <col min="46" max="46" width="14.109375" customWidth="1"/>
+    <col min="47" max="47" width="8.6640625" customWidth="1"/>
+    <col min="48" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" customWidth="1"/>
+    <col min="50" max="50" width="6.6640625" customWidth="1"/>
+    <col min="51" max="52" width="14.109375" customWidth="1"/>
+    <col min="53" max="53" width="8.6640625" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" customWidth="1"/>
+    <col min="55" max="55" width="14.109375" customWidth="1"/>
+    <col min="56" max="56" width="20.88671875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.125" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="10.75" customWidth="1"/>
-    <col min="61" max="61" width="5.625" customWidth="1"/>
-    <col min="62" max="62" width="10.75" customWidth="1"/>
-    <col min="63" max="63" width="16.5" customWidth="1"/>
-    <col min="64" max="64" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="14.109375" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="10.77734375" customWidth="1"/>
+    <col min="61" max="61" width="5.6640625" customWidth="1"/>
+    <col min="62" max="62" width="10.77734375" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" customWidth="1"/>
+    <col min="64" max="64" width="11.88671875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.75" customWidth="1"/>
-    <col min="67" max="68" width="11.875" customWidth="1"/>
+    <col min="66" max="66" width="10.77734375" customWidth="1"/>
+    <col min="67" max="68" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1660,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -1773,7 +1800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -1913,7 +1940,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -2053,7 +2080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -2193,15 +2220,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2217,9 +2244,9 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2479,7 +2506,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -2739,7 +2766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -2999,12 +3026,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3019,14 +3046,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
@@ -3265,7 +3292,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -3504,7 +3531,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -3757,9 +3784,9 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3803,7 +3830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -3847,7 +3874,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -3891,12 +3918,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3911,23 +3938,23 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="15.25" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
@@ -3974,7 +4001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -4021,7 +4048,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -4068,14 +4095,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4086,141 +4113,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AV9" sqref="AV9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="7.625" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
-    <col min="19" max="19" width="6.625" customWidth="1"/>
-    <col min="20" max="20" width="7.625" customWidth="1"/>
-    <col min="21" max="21" width="10.75" customWidth="1"/>
-    <col min="22" max="22" width="9.625" customWidth="1"/>
-    <col min="23" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="16.5" customWidth="1"/>
-    <col min="25" max="25" width="14.125" customWidth="1"/>
-    <col min="26" max="26" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="8.625" customWidth="1"/>
-    <col min="29" max="29" width="9.625" customWidth="1"/>
-    <col min="30" max="30" width="23.125" customWidth="1"/>
-    <col min="31" max="31" width="10.75" customWidth="1"/>
-    <col min="32" max="32" width="15.25" customWidth="1"/>
-    <col min="33" max="34" width="14.125" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="34" width="14.109375" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.625" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="41" width="11.875" customWidth="1"/>
-    <col min="42" max="43" width="9.625" customWidth="1"/>
-    <col min="44" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="46" width="9.625" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" customWidth="1"/>
+    <col min="42" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.125" customWidth="1"/>
-    <col min="49" max="49" width="8.625" customWidth="1"/>
-    <col min="50" max="50" width="17.5" customWidth="1"/>
-    <col min="51" max="51" width="11.875" customWidth="1"/>
-    <col min="52" max="52" width="8.625" customWidth="1"/>
-    <col min="53" max="53" width="9.625" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" customWidth="1"/>
+    <col min="50" max="50" width="17.44140625" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.5" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.5" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="23.125" customWidth="1"/>
-    <col min="61" max="61" width="17.5" customWidth="1"/>
-    <col min="62" max="62" width="14.125" customWidth="1"/>
-    <col min="63" max="63" width="11.875" customWidth="1"/>
-    <col min="64" max="64" width="8.625" customWidth="1"/>
-    <col min="65" max="65" width="14.125" customWidth="1"/>
-    <col min="66" max="66" width="9.625" customWidth="1"/>
-    <col min="67" max="67" width="17.5" customWidth="1"/>
-    <col min="68" max="68" width="10.75" customWidth="1"/>
-    <col min="69" max="69" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="23.109375" customWidth="1"/>
+    <col min="61" max="61" width="17.44140625" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" customWidth="1"/>
+    <col min="63" max="63" width="11.88671875" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" customWidth="1"/>
+    <col min="68" max="68" width="10.77734375" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.875" customWidth="1"/>
-    <col min="72" max="72" width="15.25" customWidth="1"/>
-    <col min="73" max="73" width="11.875" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
+    <col min="72" max="72" width="15.21875" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5" customWidth="1"/>
-    <col min="76" max="76" width="20.875" customWidth="1"/>
-    <col min="77" max="77" width="16.5" customWidth="1"/>
+    <col min="75" max="75" width="17.44140625" customWidth="1"/>
+    <col min="76" max="76" width="20.88671875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.875" customWidth="1"/>
-    <col min="80" max="80" width="10.75" customWidth="1"/>
-    <col min="81" max="81" width="11.875" customWidth="1"/>
-    <col min="82" max="83" width="7.625" customWidth="1"/>
-    <col min="84" max="85" width="17.5" customWidth="1"/>
-    <col min="86" max="86" width="16.5" customWidth="1"/>
-    <col min="87" max="87" width="11.875" customWidth="1"/>
-    <col min="88" max="88" width="14.125" customWidth="1"/>
-    <col min="89" max="89" width="11.875" customWidth="1"/>
-    <col min="90" max="90" width="10.75" customWidth="1"/>
-    <col min="91" max="91" width="11.875" customWidth="1"/>
-    <col min="92" max="92" width="19.75" customWidth="1"/>
-    <col min="93" max="93" width="16.5" customWidth="1"/>
-    <col min="94" max="94" width="23.125" customWidth="1"/>
-    <col min="95" max="95" width="7.625" customWidth="1"/>
-    <col min="96" max="96" width="18.625" customWidth="1"/>
-    <col min="97" max="97" width="10.75" customWidth="1"/>
-    <col min="98" max="98" width="14.125" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="80" width="10.77734375" customWidth="1"/>
+    <col min="81" max="81" width="11.88671875" customWidth="1"/>
+    <col min="82" max="83" width="7.6640625" customWidth="1"/>
+    <col min="84" max="85" width="17.44140625" customWidth="1"/>
+    <col min="86" max="86" width="16.44140625" customWidth="1"/>
+    <col min="87" max="87" width="11.88671875" customWidth="1"/>
+    <col min="88" max="88" width="14.109375" customWidth="1"/>
+    <col min="89" max="89" width="11.88671875" customWidth="1"/>
+    <col min="90" max="90" width="10.77734375" customWidth="1"/>
+    <col min="91" max="91" width="11.88671875" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="23.109375" customWidth="1"/>
+    <col min="95" max="95" width="7.6640625" customWidth="1"/>
+    <col min="96" max="96" width="18.6640625" customWidth="1"/>
+    <col min="97" max="97" width="10.77734375" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.5" customWidth="1"/>
+    <col min="100" max="100" width="16.44140625" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.625" customWidth="1"/>
-    <col min="104" max="104" width="16.5" customWidth="1"/>
-    <col min="105" max="105" width="14.125" customWidth="1"/>
-    <col min="106" max="106" width="11.875" customWidth="1"/>
-    <col min="107" max="108" width="15.25" customWidth="1"/>
-    <col min="109" max="109" width="9.625" customWidth="1"/>
+    <col min="103" max="103" width="9.6640625" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" customWidth="1"/>
+    <col min="105" max="105" width="14.109375" customWidth="1"/>
+    <col min="106" max="106" width="11.88671875" customWidth="1"/>
+    <col min="107" max="108" width="15.21875" customWidth="1"/>
+    <col min="109" max="109" width="9.6640625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.625" customWidth="1"/>
-    <col min="112" max="112" width="15.25" customWidth="1"/>
-    <col min="113" max="113" width="17.5" customWidth="1"/>
-    <col min="114" max="114" width="14.125" customWidth="1"/>
-    <col min="115" max="115" width="19.75" customWidth="1"/>
-    <col min="116" max="116" width="16.5" customWidth="1"/>
-    <col min="117" max="117" width="20.875" customWidth="1"/>
-    <col min="118" max="118" width="24.25" customWidth="1"/>
-    <col min="119" max="119" width="16.5" customWidth="1"/>
-    <col min="120" max="120" width="17.5" customWidth="1"/>
+    <col min="111" max="111" width="9.6640625" customWidth="1"/>
+    <col min="112" max="112" width="15.21875" customWidth="1"/>
+    <col min="113" max="113" width="17.44140625" customWidth="1"/>
+    <col min="114" max="114" width="14.109375" customWidth="1"/>
+    <col min="115" max="115" width="19.77734375" customWidth="1"/>
+    <col min="116" max="116" width="16.44140625" customWidth="1"/>
+    <col min="117" max="117" width="20.88671875" customWidth="1"/>
+    <col min="118" max="118" width="24.21875" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="17.44140625" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.875" customWidth="1"/>
-    <col min="124" max="124" width="19.75" customWidth="1"/>
-    <col min="125" max="125" width="17.5" customWidth="1"/>
-    <col min="126" max="126" width="20.875" customWidth="1"/>
-    <col min="127" max="127" width="18.625" customWidth="1"/>
-    <col min="128" max="128" width="8.625" customWidth="1"/>
-    <col min="129" max="129" width="15.25" customWidth="1"/>
+    <col min="122" max="123" width="20.88671875" customWidth="1"/>
+    <col min="124" max="124" width="19.77734375" customWidth="1"/>
+    <col min="125" max="125" width="17.44140625" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="8.6640625" customWidth="1"/>
+    <col min="129" max="129" width="15.21875" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.125" customWidth="1"/>
-    <col min="132" max="132" width="10.75" customWidth="1"/>
-    <col min="133" max="133" width="11.875" customWidth="1"/>
-    <col min="134" max="134" width="15.25" customWidth="1"/>
-    <col min="135" max="135" width="16.5" customWidth="1"/>
-    <col min="136" max="136" width="14.125" customWidth="1"/>
-    <col min="137" max="137" width="17.5" customWidth="1"/>
-    <col min="138" max="138" width="14.125" customWidth="1"/>
+    <col min="131" max="131" width="14.109375" customWidth="1"/>
+    <col min="132" max="132" width="10.77734375" customWidth="1"/>
+    <col min="133" max="133" width="11.88671875" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="16.44140625" customWidth="1"/>
+    <col min="136" max="136" width="14.109375" customWidth="1"/>
+    <col min="137" max="137" width="17.44140625" customWidth="1"/>
+    <col min="138" max="138" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4636,7 +4663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -4656,7 +4683,7 @@
         <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>175</v>
@@ -4758,7 +4785,7 @@
         <v>298</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>175</v>
@@ -4781,8 +4808,8 @@
       <c r="AY2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>296</v>
+      <c r="AZ2" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>78</v>
@@ -4845,25 +4872,25 @@
         <v>70</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>85</v>
@@ -4968,9 +4995,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>295</v>
@@ -4988,7 +5015,7 @@
         <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>175</v>
@@ -5090,7 +5117,7 @@
         <v>298</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>175</v>
@@ -5113,8 +5140,8 @@
       <c r="AY3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AZ3" s="1" t="s">
-        <v>296</v>
+      <c r="AZ3" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>78</v>
@@ -5174,7 +5201,7 @@
         <v>70</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>74</v>
@@ -5192,7 +5219,7 @@
         <v>78</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>85</v>
@@ -5297,9 +5324,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>295</v>
@@ -5317,7 +5344,7 @@
         <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>187</v>
@@ -5371,7 +5398,7 @@
         <v>74</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>188</v>
@@ -5419,7 +5446,7 @@
         <v>298</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>187</v>
@@ -5442,8 +5469,8 @@
       <c r="AY4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AZ4" s="1" t="s">
-        <v>296</v>
+      <c r="AZ4" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>78</v>
@@ -5503,7 +5530,7 @@
         <v>70</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>74</v>
@@ -5521,7 +5548,7 @@
         <v>78</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>85</v>
@@ -5626,9 +5653,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>295</v>
@@ -5646,7 +5673,7 @@
         <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>187</v>
@@ -5700,7 +5727,7 @@
         <v>74</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>188</v>
@@ -5748,7 +5775,7 @@
         <v>298</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>187</v>
@@ -5771,8 +5798,8 @@
       <c r="AY5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AZ5" s="1" t="s">
-        <v>296</v>
+      <c r="AZ5" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>78</v>
@@ -5835,7 +5862,7 @@
         <v>70</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>74</v>
@@ -5853,7 +5880,7 @@
         <v>78</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>85</v>
@@ -5958,9 +5985,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
